--- a/public/reports/sales_invoice_g.xlsx
+++ b/public/reports/sales_invoice_g.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>UNIFORMS &amp; TEXTILE MANUFECTURING CO.</t>
   </si>
@@ -30,73 +30,70 @@
     <t>CUSTOMER:</t>
   </si>
   <si>
-    <t>Dream uniforms</t>
+    <t>Affan uniforms co.</t>
   </si>
   <si>
     <t>INVOICE No:</t>
   </si>
   <si>
-    <t>iv/Dream uniforms/27429</t>
+    <t>iv/Affan uniforms co./2019/2</t>
   </si>
   <si>
     <t>ADDRESS:</t>
   </si>
   <si>
-    <t>undefined,Dubai</t>
+    <t>abc street,Khi</t>
   </si>
   <si>
     <t>INVOICE Date:</t>
   </si>
   <si>
-    <t>2019-01-11</t>
+    <t>2019-01-15</t>
   </si>
   <si>
     <t>CONTACT PERSON:</t>
   </si>
   <si>
-    <t>Mr Riaz</t>
+    <t>Affan</t>
   </si>
   <si>
     <t>PURCHASE ORDER  #</t>
   </si>
   <si>
-    <t>lpo/Dream uniforms/12369</t>
+    <t>lpo/Affan uniforms co./500</t>
   </si>
   <si>
     <t>TEL:</t>
   </si>
   <si>
-    <t>09001234</t>
+    <t>09000</t>
   </si>
   <si>
     <t>Shipment Mode</t>
   </si>
   <si>
-    <t>any</t>
+    <t>door to door</t>
   </si>
   <si>
     <t>Origin</t>
   </si>
   <si>
+    <t>khi</t>
+  </si>
+  <si>
     <t>Freight Terms</t>
   </si>
   <si>
     <t>Port of Discharge</t>
   </si>
   <si>
-    <t>ank</t>
-  </si>
-  <si>
     <t>Port of Loading</t>
   </si>
   <si>
-    <t>ldak</t>
-  </si>
-  <si>
     <t>Place of Delivery</t>
   </si>
   <si>
-    <t>kk</t>
+    <t>dubai</t>
   </si>
   <si>
     <t>S.No</t>
@@ -114,19 +111,13 @@
     <t>Total Amount PKR</t>
   </si>
   <si>
-    <t>Shirt-medium</t>
-  </si>
-  <si>
-    <t>100</t>
+    <t>Shirt-s</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
   <si>
     <t>300</t>
-  </si>
-  <si>
-    <t>Shirt-large</t>
-  </si>
-  <si>
-    <t>150</t>
   </si>
   <si>
     <t>GRAND TOTAL =</t>
@@ -3797,7 +3788,7 @@
         <v>18</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
@@ -3832,18 +3823,18 @@
     </row>
     <row r="12" ht="18.75" customHeight="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>17</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="F12" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
@@ -3881,15 +3872,15 @@
         <v>22</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="F13" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
@@ -3968,22 +3959,22 @@
     </row>
     <row r="16" ht="30" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>26</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>27</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
       <c r="F16" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="H16" s="22" t="s">
         <v>29</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="17" ht="20.1" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -3991,40 +3982,30 @@
         <v>1</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
       <c r="F17" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="24" t="s">
-        <v>33</v>
-      </c>
       <c r="H17" s="25">
-        <v>30000</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="18" ht="20.1" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="23">
-        <v>2</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>34</v>
-      </c>
+      <c r="A18" s="23"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
-      <c r="F18" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="25">
-        <v>45000</v>
-      </c>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="25"/>
     </row>
     <row r="19" ht="20.1" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="23"/>
@@ -4203,16 +4184,16 @@
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
       <c r="F36" s="26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G36" s="26"/>
       <c r="H36" s="25">
-        <v>75000</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -4224,7 +4205,7 @@
     </row>
     <row r="38" ht="15" customHeight="1" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="27" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B38" s="27"/>
       <c r="C38" s="27"/>
@@ -4232,7 +4213,7 @@
     </row>
     <row r="39" ht="15" customHeight="1" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H39" s="28"/>
     </row>
@@ -4242,20 +4223,20 @@
     </row>
     <row r="41" ht="15" customHeight="1" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="31" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F41" s="32" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G41" s="32"/>
       <c r="H41" s="28"/>
     </row>
     <row r="42" ht="15" customHeight="1" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="31" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F42" s="33" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G42" s="33"/>
       <c r="H42" s="28"/>
@@ -4268,20 +4249,20 @@
     </row>
     <row r="45" ht="15" customHeight="1" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="31" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H45" s="28"/>
     </row>
     <row r="46" ht="15" customHeight="1" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="30"/>
       <c r="B46" s="28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H46" s="28"/>
     </row>
     <row r="47" ht="15" customHeight="1" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="34" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B47" s="34"/>
       <c r="C47" s="34"/>
@@ -4294,7 +4275,7 @@
     </row>
     <row r="48" ht="15" customHeight="1" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="36" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B48" s="36"/>
       <c r="C48" s="36"/>
@@ -4307,7 +4288,7 @@
     </row>
     <row r="49" ht="15" customHeight="1" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="37" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B49" s="37"/>
       <c r="C49" s="37"/>

--- a/public/reports/sales_invoice_g.xlsx
+++ b/public/reports/sales_invoice_g.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>UNIFORMS &amp; TEXTILE MANUFECTURING CO.</t>
   </si>
@@ -30,60 +30,63 @@
     <t>CUSTOMER:</t>
   </si>
   <si>
-    <t>Affan uniforms co.</t>
+    <t>Dream uniforms</t>
   </si>
   <si>
     <t>INVOICE No:</t>
   </si>
   <si>
-    <t>iv/Affan uniforms co./2019/2</t>
+    <t>iv/Dream uniforms/2019/4</t>
   </si>
   <si>
     <t>ADDRESS:</t>
   </si>
   <si>
-    <t>abc street,Khi</t>
+    <t>ASD street,Dubai</t>
   </si>
   <si>
     <t>INVOICE Date:</t>
   </si>
   <si>
-    <t>2019-01-15</t>
+    <t>2019-01-12</t>
   </si>
   <si>
     <t>CONTACT PERSON:</t>
   </si>
   <si>
-    <t>Affan</t>
+    <t>Mr Riaz</t>
   </si>
   <si>
     <t>PURCHASE ORDER  #</t>
   </si>
   <si>
-    <t>lpo/Affan uniforms co./500</t>
+    <t>lpo/Dream uniforms/73315</t>
   </si>
   <si>
     <t>TEL:</t>
   </si>
   <si>
-    <t>09000</t>
+    <t>09001234</t>
   </si>
   <si>
     <t>Shipment Mode</t>
   </si>
   <si>
-    <t>door to door</t>
+    <t>asah</t>
   </si>
   <si>
     <t>Origin</t>
   </si>
   <si>
-    <t>khi</t>
+    <t>hhh</t>
   </si>
   <si>
     <t>Freight Terms</t>
   </si>
   <si>
+    <t>hhhh</t>
+  </si>
+  <si>
     <t>Port of Discharge</t>
   </si>
   <si>
@@ -93,7 +96,7 @@
     <t>Place of Delivery</t>
   </si>
   <si>
-    <t>dubai</t>
+    <t>hh</t>
   </si>
   <si>
     <t>S.No</t>
@@ -111,13 +114,13 @@
     <t>Total Amount PKR</t>
   </si>
   <si>
-    <t>Shirt-s</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>300</t>
+    <t>Trouser-m</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>570</t>
   </si>
   <si>
     <t>GRAND TOTAL =</t>
@@ -3826,12 +3829,12 @@
         <v>20</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="F12" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>19</v>
@@ -3869,7 +3872,7 @@
     </row>
     <row r="13" ht="18.75" customHeight="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>19</v>
@@ -3877,10 +3880,10 @@
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="F13" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
@@ -3959,22 +3962,22 @@
     </row>
     <row r="16" ht="30" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
       <c r="F16" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" ht="20.1" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -3982,19 +3985,19 @@
         <v>1</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
       <c r="F17" s="24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H17" s="25">
-        <v>5100</v>
+        <v>28500</v>
       </c>
     </row>
     <row r="18" ht="20.1" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -4184,16 +4187,16 @@
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
       <c r="F36" s="26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G36" s="26"/>
       <c r="H36" s="25">
-        <v>5100</v>
+        <v>28500</v>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -4205,7 +4208,7 @@
     </row>
     <row r="38" ht="15" customHeight="1" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B38" s="27"/>
       <c r="C38" s="27"/>
@@ -4213,7 +4216,7 @@
     </row>
     <row r="39" ht="15" customHeight="1" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H39" s="28"/>
     </row>
@@ -4223,20 +4226,20 @@
     </row>
     <row r="41" ht="15" customHeight="1" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F41" s="32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G41" s="32"/>
       <c r="H41" s="28"/>
     </row>
     <row r="42" ht="15" customHeight="1" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F42" s="33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G42" s="33"/>
       <c r="H42" s="28"/>
@@ -4249,20 +4252,20 @@
     </row>
     <row r="45" ht="15" customHeight="1" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H45" s="28"/>
     </row>
     <row r="46" ht="15" customHeight="1" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="30"/>
       <c r="B46" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H46" s="28"/>
     </row>
     <row r="47" ht="15" customHeight="1" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B47" s="34"/>
       <c r="C47" s="34"/>
@@ -4275,7 +4278,7 @@
     </row>
     <row r="48" ht="15" customHeight="1" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B48" s="36"/>
       <c r="C48" s="36"/>
@@ -4288,7 +4291,7 @@
     </row>
     <row r="49" ht="15" customHeight="1" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B49" s="37"/>
       <c r="C49" s="37"/>
